--- a/KNNoutput.xlsx
+++ b/KNNoutput.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>File</t>
   </si>
@@ -36,6 +36,21 @@
   </si>
   <si>
     <t>CADUSD</t>
+  </si>
+  <si>
+    <t>CHFUSD</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>NOKUSD</t>
+  </si>
+  <si>
+    <t>NZDUSD</t>
   </si>
   <si>
     <t>k</t>
@@ -396,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +442,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>0.003574319641168348</v>
+        <v>0.003054259419377451</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>0.03505570810526235</v>
+        <v>0.03096574122650797</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -447,16 +462,16 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.09011863496874604</v>
+        <v>0.002436731856217181</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>0.03505570810526235</v>
+        <v>0.02419373741082674</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -467,16 +482,16 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.001438246401993421</v>
+        <v>0.001304603503619515</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>0.03155066287307128</v>
+        <v>0.0283738343828083</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -487,16 +502,216 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.09198719921602956</v>
+        <v>0.001015206499597724</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>0.03155066287307128</v>
+        <v>0.02522353856211343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0.002035899139114068</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>0.03563344849745301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>0.002010440302613283</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>0.03516137991979882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0.0008998155010154922</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.0256892950759889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.0007224772339779168</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0.02038734784199638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0.001491672053538206</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>0.02841494626369528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>0.001163460401553571</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>0.02148760308440803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0.001890052957891746</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0.0207402400641757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0.001620368525576701</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0.01639286384887246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.00313129009518012</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0.02559629720369872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>0.002535757315124547</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>0.02040508467266353</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +721,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -592,6 +807,176 @@
       </c>
       <c r="E5">
         <v>0.01674491034401766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.0005265538575794512</v>
+      </c>
+      <c r="E6">
+        <v>0.02099305703653063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0.0005265538575794512</v>
+      </c>
+      <c r="E7">
+        <v>0.02099305703653063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0.0002275794872410785</v>
+      </c>
+      <c r="E8">
+        <v>0.01485914178132325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0.0002275794872410785</v>
+      </c>
+      <c r="E9">
+        <v>0.01485914178132325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.0004334609946996875</v>
+      </c>
+      <c r="E10">
+        <v>0.02239913521722411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0.0004334609946996875</v>
+      </c>
+      <c r="E11">
+        <v>0.02239913521722411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0.0003307626513132321</v>
+      </c>
+      <c r="E12">
+        <v>0.01211990630188213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0.0003307626513132321</v>
+      </c>
+      <c r="E13">
+        <v>0.01211990630188213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.000453828392993063</v>
+      </c>
+      <c r="E14">
+        <v>0.01557344452717527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>0.000453828392993063</v>
+      </c>
+      <c r="E15">
+        <v>0.01557344452717527</v>
       </c>
     </row>
   </sheetData>
